--- a/I.面试经验/面试准备.xlsx
+++ b/I.面试经验/面试准备.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="理想公司" sheetId="1" r:id="rId1"/>
     <sheet name="面试准备" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="远光软件" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>公司名</t>
   </si>
@@ -48,6 +48,124 @@
     <t>Spring SpringMvc SpringData</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原理步骤：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+第一步：发起请求到前端控制器(DispatcherServlet)
+第二步：前端控制器请求 HandlerMapping 查找 Handler
+ 可以根据xml配置、注解进行查找
+第三步：处理器映射器 HandlerMapping 向前端控制器返回 Handler
+第四步：前端控制器调用处理器适配器去执行 Handler
+第五步：处理器适配器去执行 Handler
+第六步：Handler 执行完成给适配器返回 ModelAndView
+第七步：处理器适配器向前端控制器返回 ModelAndView
+ ModelAndView 是 springmvc 框架的一个底层对象，包括 Model 和 view
+第八步：前端控制器请求视图解析器去进行视图解析
+ 根据逻辑视图名解析成真正的 视图(jsp)
+第九步：视图解析器向前端控制器返回View
+第十步：前端控制器进行视图渲染
+ 视图渲染将模型数据(在 ModelAndView 对象中)填充到request域
+第十一步：前端控制器向用户响应结果 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IOC:
+控制反转,依赖注入(设值注入，构造器注入)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AOP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+想要解决的问题
+1)DRY(重复性问题)
+Don`t Repeat Yourself
+2)SOC(关注点分离)
+Separation of Concerns
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AOP的应用场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+非功能性需求
+1)权限控制
+2)缓存控制
+3)事务控制
+4)审计日志
+5)性能监控
+6)分布式追踪
+7)异常处理</t>
+    </r>
+  </si>
+  <si>
     <t>亮点</t>
   </si>
   <si>
@@ -55,6 +173,163 @@
   </si>
   <si>
     <t>设计模式</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.设计原则：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单一职责原则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1个方法尽可能只做1件事情
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里氏替换原则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+通俗点讲，只要父类能出现的地方子类就可以出现。定义抽象类让子类去继承，定义接口并实现接口。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>依赖倒置原则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ● 高层模块不应该依赖低层模块，两者都应该依赖其抽象；
+ ● 抽象不应该依赖细节；
+ ● 细节应该依赖抽象
+依赖倒置原则在 Java 语言中的表现就是：
+ ● 模块间的依赖通过抽象发生，实现类之间不发生直接的依赖关系，其依赖关系是通过
+接口或抽象类产生的；
+ ● 接口或抽象类不依赖于实现类；
+ ● 实现类依赖接口或抽象类
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">接口隔离原则：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接口要尽量小
+接口要高内聚
+定制服务(只提供页面需要的接口，一个页面提供一个专有接口)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+迪米特法则：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">一个对象应该对其他对象有最少的了解。
+通俗地讲，一个类应该对自己需要耦合或调用的类知道得最少，你（被耦合或调
+用的类）的内部是如何复杂都和我没关系，那是你的事情，我就知道你提供的这么多 public
+方法，我就调用这么多，其他的我1概不关心。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开闭原则：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1个软件实体应该通过扩展来实现变化，而不是通过修改已有的代码来实现变化。
+（如果有需求变更时，心理通过增加代码来实现功能，不要修改已有代码）
+</t>
+    </r>
   </si>
   <si>
     <t>消息 jms</t>
@@ -80,10 +355,474 @@
     <t>缓存 redis</t>
   </si>
   <si>
+    <t xml:space="preserve">内存形数据库。由于硬盘数据库速度慢，所以，产生了内存形的数据库。
+最适合的场景有哪些？
+（1）、会话缓存（Session Cache）
+（2）、全页缓存（FPC）
+（3）、队列
+（4）、排行榜/计数器
+（5）、发布/订阅
+（6）、热点数据
+</t>
+  </si>
+  <si>
     <t>mysql 查询优化</t>
   </si>
   <si>
+    <t>1.索引失效（怎么避免）
+ 1.1.全值匹配我最爱
+ 1.2.最佳左前缀法则
+ 1.3.不在索引列上做任何操作（计算，函数，类型转换），会导致索引失效而转向全表扫描。
+ 1.4.存储引擎不能使用索引中范围条件右边的列
+ 1.5.尽量使用覆盖索引（只访问索引的查询（索引列和查询列一致）），减少select*
+ 1.6.mysql在使用不等于（!=或&lt;&gt;）的时候无法使用索引会导致全表扫描
+ 1.7. is null,is not null 也无法使用索引
+ 1.8.like 以通配符开头（'%abc...'）mysql索引失效会变成全表扫描的操作
+ 1.9.字符串不加单引号索引失效
+ 1.10.少用or,用它来连接时会索引失效
+2.执行计划分析
+3.慢查询日志分析
+4.小表驱动大表</t>
+  </si>
+  <si>
     <t>前端知识 js</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IOC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的理解</t>
+    </r>
+  </si>
+  <si>
+    <t>IOC：控制反转代表原来由程序本身去控制对象之间的依赖关系的这种格局被反转了，通过第三方容器（IOC）去完成控制这些对象的依赖的关系并对它们进行集中管理。
+依赖注入：获得依赖对象的过程由自身管理变为了由IOC容器主动注入，就是由IOC容器在运行期间，动态地将某种依赖关系注入到对象之中。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BeanFactory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ApplicationContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有什么区别？</t>
+    </r>
+  </si>
+  <si>
+    <t>两者都是通过xml配置文件加载bean,ApplicationContext和BeanFacotry相比,提供了更多的扩展功能，但其主要区别在于后者是延迟加载,如果Bean的某一个属性没有注入，BeanFacotry加载后，直至第一次使用调用getBean方法才会抛出异常；而ApplicationContext则在初始化自身是检验，这样有利于检查所依赖属性是否注入；所以通常情况下我们选择使用ApplicationContext.
+1).BeanFactroy采用的是延迟加载形式来注入Bean的，即只有在使用到某个Bean时(调用getBean())，才对该Bean进行加载实例化，这样，我们就不能发现一些存在的Spring的配置问题。而ApplicationContext则相反，它是在容器启动时，一次性创建了所有的Bean。这样，在容器启动时，我们就可以发现Spring中存在的配置错误。 
+2).BeanFactory和ApplicationContext都支持BeanPostProcessor、BeanFactoryPostProcessor的使用，但两者之间的区别是：BeanFactory需要手动注册，而ApplicationContext则是自动注册</t>
+  </si>
+  <si>
+    <t>了解几种锁？</t>
+  </si>
+  <si>
+    <r>
+      <t>悲观锁</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>悲观锁是就是悲观思想，即认为写多，遇到并发写的可能性高，每次去拿数据的时候都认为别人会修改，所以每次在读写数据的时候都会上锁，这样别人想读写这个数据就会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直到拿到锁。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的悲观锁就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Synchronized,AQS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架下的锁则是先尝试</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乐观锁去获取锁，获取不到，才会转换为悲观锁，如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RetreenLock</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">乐观锁是一种乐观思想，即认为读多写少，遇到并发写的可能性低，每次去拿数据的时候都认为别人不会修改，所以不会上锁，但是在更新的时候会判断一下在此期间别人有没有去更新这个数据，采取在写时先读出当前版本号，然后加锁操作（比较跟上一次的版本号，如果一样则更新），如果失败则要重复读-比较-写的操作。
+------------------------------------
+公平锁，非公平锁
+公平锁：是指多个线程在等待同一个锁时，必须按照申请锁的先后顺序来一次获得锁。所用公平锁就好像在餐厅的门口安装了一个排队的护栏，谁先来的谁就站的靠前，无法进行插队，当餐厅中的人用餐结束后会把钥匙交给排在最前边的那个人，以此类推。公平锁的好处是，可以保证每个排队的人都有饭吃，先到先吃后到后吃。但是弊端是，要额外安装排队装置。
+非公平锁：理解了公平锁，非公平锁就很好理解了，它无非就是不用排队，当餐厅里的人出来后将钥匙往地上一扔，谁抢到算谁的。但是这样就造成了一个问题，那些身强体壮的人可能总是会先抢到钥匙，而那些身体瘦小的人可能一直抢不到，这就有可能将一直抢不到钥匙，最后导致需要很长时间才能拿到钥匙甚至一直拿不到直至饿死。
+公平锁与非公平所的总结：
+（1） 公平锁的好处是等待锁的线程不会饿死，但是整体效率相对低一些；非公平锁的好处是整体效率相对高一些，但是有些线程可能会饿死或者说很早就在等待锁，但要等很久才会获得锁。其中的原因是公平锁是严格按照请求所的顺序来排队获得锁的，而非公平锁时可以抢占的，即如果在某个时刻有线程需要获取锁，而这个时候刚好锁可用，那么这个线程会直接抢占，而这时阻塞在等待队列的线程则不会被唤醒。
+（2） 在java中，公平锁可以通过new ReentrantLock(true)来实现；非公平锁可以通过new ReentrantLock(false)或者默认构造函数new ReentrantLock()实现。
+（3）synchronized是非公平锁，并且它无法实现公平锁。
+-----------------------------------
+互斥锁
+互斥锁的概念非常简单，也就是我们常说的同步，即一次最多只能有一个线程持有的锁，当一个线程持有该锁的时候其它线程无法进入上锁的区域。在Java中synchronized就是互斥锁，从宏观概念来讲，互斥锁就是通过悲观锁的理念引出来的，而非互斥锁则是通过乐观锁的概念引申的。
+-----------------------------------
+共享锁、排它锁
+共享锁：也称读锁或S锁。如果事务T对数据A加上共享锁后，则其他事务只能对A再加共享锁，不能加排它锁。获准共享锁的事务只能读数据，不能修改数据。 
+排它锁：也称独占锁、写锁或X锁。如果事务T对数据A加上排它锁后，则其他事务不能再对A加任何类型的锁。获得排它锁的事务即能读数据又能修改数据。
+</t>
+    </r>
+  </si>
+  <si>
+    <t>java类加载过程</t>
+  </si>
+  <si>
+    <t>ClassLoader，按需延迟加载，各司其职</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库索引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>是一个数据结构，使用B+树，通过二叉树折半查找。</t>
+  </si>
+  <si>
+    <t>怎么实现的b树和b+树的区别</t>
+  </si>
+  <si>
+    <t>区别就在与B+树的所有根节点都不带有任何数据信息，只有索引信息，所有数据信息全部存储在叶子节点里，这样，整个树的每个节点所占的内存空间就变小了，读到内存中的索引信息就会更多一些，相当于减少了磁盘IO次数。
+树的所有叶结点构成一个有序链表，可以按照关键码排序的次序遍历全部记录。
+B+ 树的优点在于：
+由于B+树在内部节点上不包含数据信息，因此在内存页中能够存放更多的key。 数据存放的更加紧密，具有更好的空间局部性。因此访问叶子节点上关联的数据也具有更好的缓存命中率。
+B+树的叶子结点都是相链的，因此对整棵树的便利只需要一次线性遍历叶子结点即可。而且由于数据顺序排列并且相连，所以便于区间查找和搜索。而B树则需要进行每一层的递归遍历。相邻的元素可能在内存中不相邻，所以缓存命中性没有B+树好。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画一个b+树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>讲一下你知道的java.util.concurrent包下的类</t>
+  </si>
+  <si>
+    <t>ConcorrenctHashMap 分段锁。java.util.concurrent 包含许多线程安全、测试良好、高性能的并发构建块。</t>
+  </si>
+  <si>
+    <t>treemap了解吗</t>
+  </si>
+  <si>
+    <t>基于红黑树实现。Treemap：适用于按自然顺序或自定义顺序遍历键(key)。
+HashMap通常比TreeMap快一点(树和哈希表的数据结构使然)，建议多使用HashMap，在需要排序的Map时候才用TreeMap。</t>
+  </si>
+  <si>
+    <t>使用数组实现一个队列</t>
+  </si>
+  <si>
+    <t>long占多少字节</t>
+  </si>
+  <si>
+    <t>.为什么要面向对象(java)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">易维护、易复用、易扩展，由于面向对象有封装、继承、多态性的特性，可以设计出低耦合的系统，使系统更加灵活、更加易于维护 
+</t>
+  </si>
+  <si>
+    <t>讲讲设计模式常用得哪些</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 单例模式。代理模式。 工厂模式。
+观察者模式：又叫发布-订阅(Publish/Subscribe)模式。定义了对象间一对多依赖，当一个对象改变状态时，它的所有依赖者都会收到通知并自动更新。</t>
+  </si>
+  <si>
+    <t>进程间如何通信</t>
+  </si>
+  <si>
+    <t>序列化？最优的序列化是？</t>
+  </si>
+  <si>
+    <t>将对象转换成二进制。</t>
+  </si>
+  <si>
+    <t>mysql处理语句的机制。</t>
+  </si>
+  <si>
+    <t>1.from--查询笛卡尔积
+2.on--主表保留
+3.join--不符合on也添加
+4.where --非select别名
+5.group by--改变对表引用
+6.having--只作用分组后
+7.select --distinct
+8.distinct
+9.order by--可以使用select 别名
+10.limit
+连接池-&gt;存储引擎-&gt;硬盘</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多态的体现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>方法重载：    通常是指在同一个类中，相同的方法名对应着不同的方法实现，这些方法名相同的方法其区别在于他们需要的参数不同。即采用不同的方法形参表，区分重载方法要求形参在数据类型、个数和顺序的不同。（见实例2.1）
+方法重写：    方法重写主要用于父类和子类间。子类重写父类的方法，只是对应的方法实现不同，其方法名和参数都相同。（见实例2.2）
+抽象类：       在java语言中，一个类中的方法只给出了标准，而没有给出具体的实现方法，这样的类就是抽象类。例如父类就是抽象类，它不会被实例化的类。
+接口：          在多态机制中，接口比抽象类使用起来更加方便。而抽象类组成的集合就是接口。</t>
+  </si>
+  <si>
+    <t>HTTP的请求方式与Servle</t>
+  </si>
+  <si>
+    <t>Java 中，什么是构造函数重载？什么是复制构造函数？</t>
+  </si>
+  <si>
+    <t>java中构造函数的重载和方法重载很相似。可以为一个类创建多个构造函数。每一个构造函数都必须有他唯一的参数列表。</t>
+  </si>
+  <si>
+    <t>hashmap和hashset的区别。</t>
+  </si>
+  <si>
+    <t>HashSet实现了Set接口，它不允许集合中有重复的值。
+HashMap* *HashSet*
+HashMap实现了Map接口 HashSet实现了Set接口
+HashMap储存键值对 HashSet仅仅存储对象
+使用put()方法将元素放入map中 使用add()方法将元素放入set中
+HashMap中使用键对象来计算hashcode值 HashSet使用成员对象来计算hashcode值，对于两个对象来说hashcode可能相同，所以equals()方法用来判断对象的相等性，如果两个对象不同的话，那么返回false
+HashMap比较快，因为是使用唯一的键来获取对象 HashSet较HashMap来说比较慢</t>
   </si>
 </sst>
 </file>
@@ -91,15 +830,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -121,23 +879,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,7 +984,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,47 +998,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,47 +1016,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF4F4F4F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -279,78 +1065,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,108 +1246,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +1275,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -499,6 +1309,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,25 +1341,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,21 +1361,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -593,10 +1379,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,150 +1391,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,7 +1900,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1110,17 +1908,17 @@
     <col min="1" max="1" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1133,7 +1931,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -1152,21 +1950,21 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="35.625" customWidth="1"/>
-    <col min="2" max="2" width="73.5" customWidth="1"/>
+    <col min="2" max="2" width="103.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108" spans="1:2">
+    <row r="1" ht="40.5" spans="1:2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1175,45 +1973,57 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" ht="409" customHeight="1" spans="1:2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="67.5" spans="1:2">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:2">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="364.5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="351" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="310.5" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="121.5" spans="1:2">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="189" spans="1:2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1226,14 +2036,206 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="75.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="54" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="162" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="207" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" ht="27" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="148.5" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="121.5" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" ht="27" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" ht="121.5" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="long占多少字节" tooltip="https://www.kanzhun.com/gsmsh10857167.html"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
